--- a/figures/sec3_performance/Additional_File_2.xlsx
+++ b/figures/sec3_performance/Additional_File_2.xlsx
@@ -8,16 +8,18 @@
   <sheets>
     <sheet name="a) Performance" r:id="rId3" sheetId="1"/>
     <sheet name="b) Hardware" r:id="rId4" sheetId="2"/>
+    <sheet name="c) BCALM versions" r:id="rId5" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'a) Performance'!$A$3:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'b) Hardware'!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">'c) BCALM versions'!$A$3:$F$3</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="557">
   <si>
     <t>Performance comparison</t>
   </si>
@@ -1657,6 +1659,39 @@
   </si>
   <si>
     <t>30720 KB or 25600 KB</t>
+  </si>
+  <si>
+    <t>Comparison of BCALM versions</t>
+  </si>
+  <si>
+    <t>Comparsion of BCALM 2.2.2 vs. BCALM 2.2.3</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>bombyx</t>
+  </si>
+  <si>
+    <t>celegan</t>
+  </si>
+  <si>
+    <t>ecoli</t>
+  </si>
+  <si>
+    <t>hg38</t>
+  </si>
+  <si>
+    <t>yeast</t>
   </si>
 </sst>
 </file>
@@ -1664,13 +1699,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1753,7 +1807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1795,6 +1849,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -12171,11 +12245,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.53515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="123.796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.1640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="123.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.18359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12296,4 +12370,261 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.17578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.8671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="27">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="30">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s" s="36">
+        <v>548</v>
+      </c>
+      <c r="C3" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="36">
+        <v>549</v>
+      </c>
+      <c r="E3" t="s" s="36">
+        <v>550</v>
+      </c>
+      <c r="F3" t="s" s="36">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="32">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9022.4657</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2853.8515</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.1615049696874555</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="32">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8720.164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1926.0274</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.527538912478608</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="32">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2967.3342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>806.5233</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.679167359455083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="32">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2658.8297</v>
+      </c>
+      <c r="E7" t="n">
+        <v>514.9167</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.16361131810252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="32">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>117.5605</v>
+      </c>
+      <c r="E8" t="n">
+        <v>39.0507</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0104581992128185</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="32">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112.2901</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.9364</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.4093009557814455</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="32">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92798.8415</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31825.9084</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.9158269524837817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="32">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75434.4538</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18414.1019</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.096558942144227</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>259.988</v>
+      </c>
+      <c r="E12" t="n">
+        <v>80.6226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.224753356999154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="32">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>250.4148</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65.938</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.7977312020382783</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F3"/>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>